--- a/paper/sac2017/summary_connect.xlsx
+++ b/paper/sac2017/summary_connect.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\papers\sac2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\android\PbSbMid\paper\sac2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="lgg4" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="connect" localSheetId="1">asus!$A$1:$D$98</definedName>
     <definedName name="connect" localSheetId="2">galaxy3!$A$1:$D$108</definedName>
     <definedName name="connect_lgg4" localSheetId="0">'lgg4'!$A$1:$D$114</definedName>
+    <definedName name="connect091116" localSheetId="2">galaxy3!$G$1:$J$152</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +53,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="connect1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" name="connect091116" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\android\PbSbMid\paper\sac2017\samsung_galaxy_3\connect091116.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="connect1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="D:\documents\papers\sac2017\samsung_galaxy_3\connect.txt" tab="0" space="1" consecutive="1">
       <textFields count="4">
         <textField/>
@@ -66,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="8">
   <si>
     <t>connect</t>
   </si>
@@ -125,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1634,7 +1646,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect091116" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1902,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="S89" sqref="S89"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,1749 +5840,3973 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E108"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
         <v>1472776370399</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1">
+        <v>1473637142348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
         <v>1472776380221</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>D2-D1</f>
         <v>9822</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1473637147020</v>
+      </c>
+      <c r="K2" s="1">
+        <f>J2-J1</f>
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
         <v>1472776394314</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1473637172498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
         <v>1472776402226</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E32" si="0">D4-D3</f>
         <v>7912</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1473637177785</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:K20" si="1">J4-J3</f>
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
         <v>1472776437426</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1473637233343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
         <v>1472776457368</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>19942</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1473637239695</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
         <v>1472776471803</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1473637252934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
         <v>1472776483491</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>11688</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1473637258515</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
         <v>1472776500434</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1473637265533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
         <v>1472776509901</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>9467</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1473637270787</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
         <v>1472776522446</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1473637294649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
         <v>1472776530461</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>8015</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13">
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1473637300091</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
         <v>1472776539901</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14">
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1473637312251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
         <v>1472776550556</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>10655</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1473637318412</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
         <v>1472776560353</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16">
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1473637325997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
         <v>1472776565355</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>5002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17">
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1473637332276</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="1"/>
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <v>1472776573559</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18">
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1473637340788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
         <v>1472776584241</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>10682</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1473637347336</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
         <v>1472776595555</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1473637356001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
         <v>1472776606130</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>10575</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1473637361449</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
         <v>1472776617930</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1473637394844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
         <v>1472776622793</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>4863</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1473637402372</v>
+      </c>
+      <c r="K22" s="1">
+        <f>J22-J21</f>
+        <v>7528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
         <v>1472776633104</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24">
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1473637410033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
         <v>1472776643733</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>10629</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
+      <c r="G24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1473637415115</v>
+      </c>
+      <c r="K24" s="1">
+        <f>J24-J23</f>
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
         <v>1472776653296</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26">
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1473637422517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
         <v>1472776658450</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>5154</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1473637428717</v>
+      </c>
+      <c r="K26" s="1">
+        <f>J26-J25</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
         <v>1472776670104</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28">
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1473637437461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
         <v>1472776675337</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>5233</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1473637442792</v>
+      </c>
+      <c r="K28" s="1">
+        <f>J28-J27</f>
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
         <v>1472776685295</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30">
+      <c r="G29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1473637450815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
         <v>1472776696081</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>10786</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1473637456141</v>
+      </c>
+      <c r="K30" s="1">
+        <f>J30-J29</f>
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
         <v>1472776707217</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
+      <c r="G31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1473637469673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
         <v>1472776717079</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>9862</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33">
+      <c r="G32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1473637474960</v>
+      </c>
+      <c r="K32" s="1">
+        <f>J32-J31</f>
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
         <v>1472776761738</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34">
+      <c r="G33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1473637484800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
         <v>1472776772678</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <f>D34-D33</f>
         <v>10940</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35">
+      <c r="G34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1473637489989</v>
+      </c>
+      <c r="K34" s="1">
+        <f>J34-J33</f>
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
         <v>1472776784703</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36">
+      <c r="G35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1473637500343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
         <v>1472776792793</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <f>D36-D35</f>
         <v>8090</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37">
+      <c r="G36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1473637505427</v>
+      </c>
+      <c r="K36" s="1">
+        <f>J36-J35</f>
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
         <v>1472776802134</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
+      <c r="G37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1473637515858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
         <v>1472776806910</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <f>D38-D37</f>
         <v>4776</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39">
+      <c r="G38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1473637522250</v>
+      </c>
+      <c r="K38" s="1">
+        <f>J38-J37</f>
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
         <v>1472776817895</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40">
+      <c r="G39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1473637532462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
         <v>1472776821714</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <f>D40-D39</f>
         <v>3819</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41">
+      <c r="G40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1473637538577</v>
+      </c>
+      <c r="K40" s="1">
+        <f>J40-J39</f>
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
         <v>1472776855656</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42">
+      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1473637545840</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
         <v>1472776864803</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <f>D42-D41</f>
         <v>9147</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43">
+      <c r="G42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1473637550923</v>
+      </c>
+      <c r="K42" s="1">
+        <f>J42-J41</f>
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
         <v>1472776875683</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44">
+      <c r="G43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1473637571844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
         <v>1472776879959</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <f>D44-D43</f>
         <v>4276</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45">
+      <c r="G44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1473637577049</v>
+      </c>
+      <c r="K44" s="1">
+        <f>J44-J43</f>
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
         <v>1472776906061</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46">
+      <c r="G45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1473637594586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
         <v>1472776916945</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <f>D46-D45</f>
         <v>10884</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
+      <c r="G46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1473637599591</v>
+      </c>
+      <c r="K46" s="1">
+        <f>J46-J45</f>
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
         <v>1472776929672</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48">
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1473637606364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
         <v>1472776936352</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <f>D48-D47</f>
         <v>6680</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49">
+      <c r="G48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1473637611542</v>
+      </c>
+      <c r="K48" s="1">
+        <f>J48-J47</f>
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
         <v>1472776953372</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50">
+      <c r="G49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1473637618108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
         <v>1472776962844</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <f>D50-D49</f>
         <v>9472</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51">
+      <c r="G50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1473637623504</v>
+      </c>
+      <c r="K50" s="1">
+        <f>J50-J49</f>
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
         <v>1472777022885</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52">
+      <c r="G51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1473637632478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1">
         <v>1472777034187</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <f>D52-D51</f>
         <v>11302</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53">
+      <c r="G52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1473637638680</v>
+      </c>
+      <c r="K52" s="1">
+        <f>J52-J51</f>
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1">
         <v>1472777045612</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54">
+      <c r="G53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1473637647761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
         <v>1472777063992</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <f>D54-D53</f>
         <v>18380</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55">
+      <c r="G54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1473637653031</v>
+      </c>
+      <c r="K54" s="1">
+        <f>J54-J53</f>
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1">
         <v>1472777082112</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56">
+      <c r="G55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1473637662424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1">
         <v>1472777093478</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <f>D56-D55</f>
         <v>11366</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57">
+      <c r="G56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1473637668980</v>
+      </c>
+      <c r="K56" s="1">
+        <f>J56-J55</f>
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
         <v>1472777116254</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58">
+      <c r="G57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1473637677812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
         <v>1472777124755</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <f>D58-D57</f>
         <v>8501</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59">
+      <c r="G58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1473637683314</v>
+      </c>
+      <c r="K58" s="1">
+        <f>J58-J57</f>
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
         <v>1472777137272</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60">
+      <c r="G59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1473637692642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
         <v>1472777142050</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <f>D60-D59</f>
         <v>4778</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61">
+      <c r="G60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1473637698333</v>
+      </c>
+      <c r="K60" s="1">
+        <f>J60-J59</f>
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1">
         <v>1472777154513</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62">
+      <c r="G61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1473637738819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
         <v>1472777165369</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <f>D62-D61</f>
         <v>10856</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63">
+      <c r="G62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1473637743999</v>
+      </c>
+      <c r="K62" s="1">
+        <f>J62-J61</f>
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
         <v>1472777174243</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64">
+      <c r="G63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1473637750577</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
         <v>1472777180156</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <f>D64-D63</f>
         <v>5913</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65">
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1473637755443</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" ref="K64:K127" si="2">J64-J63</f>
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
         <v>1472777191413</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66">
+      <c r="G65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1473637764852</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
         <v>1472777197000</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <f>D66-D65</f>
         <v>5587</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67">
+      <c r="G66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1473637769759</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="2"/>
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
         <v>1472777214198</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68">
+      <c r="G67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1473637810626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1">
         <v>1472777228446</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <f>D68-D67</f>
         <v>14248</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69">
+      <c r="G68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1473637815642</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="2"/>
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
         <v>1472777241314</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70">
+      <c r="G69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1473637822346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1">
         <v>1472777250928</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <f>D70-D69</f>
         <v>9614</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71">
+      <c r="G70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1473637828518</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="2"/>
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1">
         <v>1472777439998</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72">
+      <c r="G71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1473637840880</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1">
         <v>1472777449474</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <f>D72-D71</f>
         <v>9476</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73">
+      <c r="G72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1473637847489</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="2"/>
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
         <v>1472777464617</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74">
+      <c r="G73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1473637898395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1">
         <v>1472777470168</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <f>D74-D73</f>
         <v>5551</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75">
+      <c r="G74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1473637903508</v>
+      </c>
+      <c r="K74" s="1">
+        <f>J74-J73</f>
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1">
         <v>1472794303053</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76">
+      <c r="G75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1473637913511</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1">
         <v>1472794313948</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <f>D76-D75</f>
         <v>10895</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77">
+      <c r="G76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1473637918534</v>
+      </c>
+      <c r="K76" s="1">
+        <f>J76-J75</f>
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
         <v>1472794349050</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78">
+      <c r="G77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1473637926717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
         <v>1472794362732</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <f>D78-D77</f>
         <v>13682</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79">
+      <c r="G78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1473637940685</v>
+      </c>
+      <c r="K78" s="1">
+        <f>J78-J77</f>
+        <v>13968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
         <v>1472794375917</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80">
+      <c r="G79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1473637947577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1">
         <v>1472794386704</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <f>D80-D79</f>
         <v>10787</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81">
+      <c r="G80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1473637952636</v>
+      </c>
+      <c r="K80" s="1">
+        <f>J80-J79</f>
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
         <v>1472794395474</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82">
+      <c r="G81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1473637960828</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1">
         <v>1472794406587</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <f>D82-D81</f>
         <v>11113</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83">
+      <c r="G82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1473637966277</v>
+      </c>
+      <c r="K82" s="1">
+        <f>J82-J81</f>
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
         <v>1472794417592</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84">
+      <c r="G83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1473637974290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1">
         <v>1472794423757</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <f>D84-D83</f>
         <v>6165</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85">
+      <c r="G84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J84" s="1">
+        <v>1473637979162</v>
+      </c>
+      <c r="K84" s="1">
+        <f>J84-J83</f>
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
         <v>1472794434333</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86">
+      <c r="G85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1473637989842</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
         <v>1472794438627</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <f>D86-D85</f>
         <v>4294</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87">
+      <c r="G86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J86" s="1">
+        <v>1473637995231</v>
+      </c>
+      <c r="K86" s="1">
+        <f>J86-J85</f>
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
         <v>1472794448282</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88">
+      <c r="G87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1473638003283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
         <v>1472794453160</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <f>D88-D87</f>
         <v>4878</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89">
+      <c r="G88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1473638008489</v>
+      </c>
+      <c r="K88" s="1">
+        <f>J88-J87</f>
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
         <v>1472794466669</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90">
+      <c r="G89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="1">
+        <v>1473638016727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1">
         <v>1472794471487</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <f>D90-D89</f>
         <v>4818</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91">
+      <c r="G90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1473638022165</v>
+      </c>
+      <c r="K90" s="1">
+        <f>J90-J89</f>
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
         <v>1472794491116</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92">
+      <c r="G91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1473638034546</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
         <v>1472794502455</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <f>D92-D91</f>
         <v>11339</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93">
+      <c r="G92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1473638039865</v>
+      </c>
+      <c r="K92" s="1">
+        <f>J92-J91</f>
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
         <v>1472794515737</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94">
+      <c r="G93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1473638052563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1">
         <v>1472794520069</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <f>D94-D93</f>
         <v>4332</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95">
+      <c r="G94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1473638057493</v>
+      </c>
+      <c r="K94" s="1">
+        <f>J94-J93</f>
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
         <v>1472794533100</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96">
+      <c r="G95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1473638065279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1">
         <v>1472794542959</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <f>D96-D95</f>
         <v>9859</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97">
+      <c r="G96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1473638070208</v>
+      </c>
+      <c r="K96" s="1">
+        <f>J96-J95</f>
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
         <v>1472794554015</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98">
+      <c r="G97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1473638077106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1">
         <v>1472794563168</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <f>D98-D97</f>
         <v>9153</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99">
+      <c r="G98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1473638082332</v>
+      </c>
+      <c r="K98" s="1">
+        <f>J98-J97</f>
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
         <v>1472794573686</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100">
+      <c r="G99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1473638092251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1">
         <v>1472794584563</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <f>D100-D99</f>
         <v>10877</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101">
+      <c r="G100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1473638097596</v>
+      </c>
+      <c r="K100" s="1">
+        <f>J100-J99</f>
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
         <v>1472794594359</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102">
+      <c r="G101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1473638103505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1">
         <v>1472794605401</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <f>D102-D101</f>
         <v>11042</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103">
+      <c r="G102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1473638109325</v>
+      </c>
+      <c r="K102" s="1">
+        <f>J102-J101</f>
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
         <v>1472794619607</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104">
+      <c r="G103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1473638144649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1">
         <v>1472794627726</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <f>D104-D103</f>
         <v>8119</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105">
+      <c r="G104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1473638149864</v>
+      </c>
+      <c r="K104" s="1">
+        <f>J104-J103</f>
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
         <v>1472794637385</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106">
+      <c r="G105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1473638157015</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1">
         <v>1472794646696</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <f>D106-D105</f>
         <v>9311</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107">
+      <c r="G106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" s="1">
+        <v>1473638162842</v>
+      </c>
+      <c r="K106" s="1">
+        <f>J106-J105</f>
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
         <v>1472794658223</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108">
+      <c r="G107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1473638169777</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1">
         <v>1472794670497</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <f>D108-D107</f>
         <v>12274</v>
       </c>
+      <c r="G108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1473638175107</v>
+      </c>
+      <c r="K108" s="1">
+        <f>J108-J107</f>
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1473638184628</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J110" s="1">
+        <v>1473638190446</v>
+      </c>
+      <c r="K110" s="1">
+        <f>J110-J109</f>
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J111" s="1">
+        <v>1473638198712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1473638204007</v>
+      </c>
+      <c r="K112" s="1">
+        <f>J112-J111</f>
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="113" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1473638210433</v>
+      </c>
+    </row>
+    <row r="114" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1473638215585</v>
+      </c>
+      <c r="K114" s="1">
+        <f>J114-J113</f>
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="115" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>1473638224852</v>
+      </c>
+    </row>
+    <row r="116" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J116" s="1">
+        <v>1473638229602</v>
+      </c>
+      <c r="K116" s="1">
+        <f>J116-J115</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="117" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1">
+        <v>1473638236317</v>
+      </c>
+    </row>
+    <row r="118" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J118" s="1">
+        <v>1473638241074</v>
+      </c>
+      <c r="K118" s="1">
+        <f>J118-J117</f>
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="119" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J119" s="1">
+        <v>1473638247629</v>
+      </c>
+    </row>
+    <row r="120" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J120" s="1">
+        <v>1473638252801</v>
+      </c>
+      <c r="K120" s="1">
+        <f>J120-J119</f>
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="121" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J121" s="1">
+        <v>1473638259178</v>
+      </c>
+    </row>
+    <row r="122" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1473638264437</v>
+      </c>
+      <c r="K122" s="1">
+        <f>J122-J121</f>
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="123" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J123" s="1">
+        <v>1473638270550</v>
+      </c>
+    </row>
+    <row r="124" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J124" s="1">
+        <v>1473638276147</v>
+      </c>
+      <c r="K124" s="1">
+        <f>J124-J123</f>
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="125" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J125" s="1">
+        <v>1473638282625</v>
+      </c>
+    </row>
+    <row r="126" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J126" s="1">
+        <v>1473638287679</v>
+      </c>
+      <c r="K126" s="1">
+        <f>J126-J125</f>
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="127" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J127" s="1">
+        <v>1473638296731</v>
+      </c>
+    </row>
+    <row r="128" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J128" s="1">
+        <v>1473638301524</v>
+      </c>
+      <c r="K128" s="1">
+        <f>J128-J127</f>
+        <v>4793</v>
+      </c>
+    </row>
+    <row r="129" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J129" s="1">
+        <v>1473638308360</v>
+      </c>
+    </row>
+    <row r="130" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J130" s="1">
+        <v>1473638313641</v>
+      </c>
+      <c r="K130" s="1">
+        <f>J130-J129</f>
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="131" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J131" s="1">
+        <v>1473638320261</v>
+      </c>
+    </row>
+    <row r="132" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J132" s="1">
+        <v>1473638325072</v>
+      </c>
+      <c r="K132" s="1">
+        <f>J132-J131</f>
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="133" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" s="1">
+        <v>1473638333699</v>
+      </c>
+    </row>
+    <row r="134" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J134" s="1">
+        <v>1473638338473</v>
+      </c>
+      <c r="K134" s="1">
+        <f>J134-J133</f>
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="135" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J135" s="1">
+        <v>1473638377841</v>
+      </c>
+    </row>
+    <row r="136" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J136" s="1">
+        <v>1473638383543</v>
+      </c>
+      <c r="K136" s="1">
+        <f>J136-J135</f>
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="137" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J137" s="1">
+        <v>1473638392111</v>
+      </c>
+    </row>
+    <row r="138" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J138" s="1">
+        <v>1473638397262</v>
+      </c>
+      <c r="K138" s="1">
+        <f>J138-J137</f>
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="139" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J139" s="1">
+        <v>1473638404154</v>
+      </c>
+    </row>
+    <row r="140" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J140" s="1">
+        <v>1473638409534</v>
+      </c>
+      <c r="K140" s="1">
+        <f>J140-J139</f>
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="141" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J141" s="1">
+        <v>1473638416749</v>
+      </c>
+    </row>
+    <row r="142" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J142" s="1">
+        <v>1473638422459</v>
+      </c>
+      <c r="K142" s="1">
+        <f>J142-J141</f>
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="143" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J143" s="1">
+        <v>1473638429685</v>
+      </c>
+    </row>
+    <row r="144" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J144" s="1">
+        <v>1473638435672</v>
+      </c>
+      <c r="K144" s="1">
+        <f>J144-J143</f>
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="145" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J145" s="1">
+        <v>1473638496250</v>
+      </c>
+    </row>
+    <row r="146" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J146" s="1">
+        <v>1473638502371</v>
+      </c>
+      <c r="K146" s="1">
+        <f>J146-J145</f>
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="147" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J147" s="1">
+        <v>1473638510095</v>
+      </c>
+    </row>
+    <row r="148" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J148" s="1">
+        <v>1473638515407</v>
+      </c>
+      <c r="K148" s="1">
+        <f>J148-J147</f>
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="149" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J149" s="1">
+        <v>1473638522743</v>
+      </c>
+    </row>
+    <row r="150" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J150" s="1">
+        <v>1473638527879</v>
+      </c>
+      <c r="K150" s="1">
+        <f>J150-J149</f>
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="151" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J151" s="1">
+        <v>1473638537149</v>
+      </c>
+    </row>
+    <row r="152" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J152" s="1">
+        <v>1473638542155</v>
+      </c>
+      <c r="K152" s="1">
+        <f>J152-J151</f>
+        <v>5006</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/paper/sac2017/summary_connect.xlsx
+++ b/paper/sac2017/summary_connect.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="lgg4" sheetId="1" r:id="rId1"/>
@@ -706,151 +706,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
                 <c:pt idx="0">
-                  <c:v>9822</c:v>
+                  <c:v>4672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7912</c:v>
+                  <c:v>5287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19942</c:v>
+                  <c:v>6352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11688</c:v>
+                  <c:v>5581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9467</c:v>
+                  <c:v>5254</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8015</c:v>
+                  <c:v>5442</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10655</c:v>
+                  <c:v>6161</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5002</c:v>
+                  <c:v>6279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10682</c:v>
+                  <c:v>6548</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10575</c:v>
+                  <c:v>5448</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4863</c:v>
+                  <c:v>7528</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10629</c:v>
+                  <c:v>5082</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5154</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5233</c:v>
+                  <c:v>5331</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10786</c:v>
+                  <c:v>5326</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9862</c:v>
+                  <c:v>5287</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10940</c:v>
+                  <c:v>5189</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8090</c:v>
+                  <c:v>5084</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4776</c:v>
+                  <c:v>6392</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3819</c:v>
+                  <c:v>6115</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9147</c:v>
+                  <c:v>5083</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4276</c:v>
+                  <c:v>5205</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10884</c:v>
+                  <c:v>5005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6680</c:v>
+                  <c:v>5178</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9472</c:v>
+                  <c:v>5396</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11302</c:v>
+                  <c:v>6202</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18380</c:v>
+                  <c:v>5270</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11366</c:v>
+                  <c:v>6556</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8501</c:v>
+                  <c:v>5502</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4778</c:v>
+                  <c:v>5691</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10856</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5913</c:v>
+                  <c:v>4866</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5587</c:v>
+                  <c:v>4907</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14248</c:v>
+                  <c:v>5016</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9614</c:v>
+                  <c:v>6172</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9476</c:v>
+                  <c:v>6609</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5551</c:v>
+                  <c:v>5113</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10895</c:v>
+                  <c:v>5023</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>13682</c:v>
+                  <c:v>13968</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10787</c:v>
+                  <c:v>5059</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11113</c:v>
+                  <c:v>5449</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6165</c:v>
+                  <c:v>4872</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4294</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4878</c:v>
+                  <c:v>5206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4818</c:v>
+                  <c:v>5438</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11339</c:v>
+                  <c:v>5319</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4332</c:v>
+                  <c:v>4930</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9859</c:v>
+                  <c:v>4929</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9153</c:v>
+                  <c:v>5226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1977,7 @@
         <v>1583</v>
       </c>
       <c r="M2">
-        <v>9822</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>1010</v>
       </c>
       <c r="M4">
-        <v>7912</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>951</v>
       </c>
       <c r="M6">
-        <v>19942</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>4922</v>
       </c>
       <c r="M8">
-        <v>11688</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>916</v>
       </c>
       <c r="M10">
-        <v>9467</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
         <v>2202</v>
       </c>
       <c r="M12">
-        <v>8015</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>2009</v>
       </c>
       <c r="M14">
-        <v>10655</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>1054</v>
       </c>
       <c r="M16">
-        <v>5002</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
         <v>932</v>
       </c>
       <c r="M18">
-        <v>10682</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>3928</v>
       </c>
       <c r="M20">
-        <v>10575</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
         <v>1901</v>
       </c>
       <c r="M22">
-        <v>4863</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2428,7 +2428,7 @@
         <v>909</v>
       </c>
       <c r="M24">
-        <v>10629</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>2239</v>
       </c>
       <c r="M26">
-        <v>5154</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2510,7 +2510,7 @@
         <v>1383</v>
       </c>
       <c r="M28">
-        <v>5233</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>2519</v>
       </c>
       <c r="M30">
-        <v>10786</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>1971</v>
       </c>
       <c r="M32">
-        <v>9862</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>2574</v>
       </c>
       <c r="M34">
-        <v>10940</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>870</v>
       </c>
       <c r="M36">
-        <v>8090</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>896</v>
       </c>
       <c r="M38">
-        <v>4776</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>1845</v>
       </c>
       <c r="M40">
-        <v>3819</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>1753</v>
       </c>
       <c r="M42">
-        <v>9147</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>917</v>
       </c>
       <c r="M44">
-        <v>4276</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>1358</v>
       </c>
       <c r="M46">
-        <v>10884</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>1867</v>
       </c>
       <c r="M48">
-        <v>6680</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>906</v>
       </c>
       <c r="M50">
-        <v>9472</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>1348</v>
       </c>
       <c r="M52">
-        <v>11302</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3043,7 +3043,7 @@
         <v>3142</v>
       </c>
       <c r="M54">
-        <v>18380</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>1474</v>
       </c>
       <c r="M56">
-        <v>11366</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
         <v>6749</v>
       </c>
       <c r="M58">
-        <v>8501</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>1790</v>
       </c>
       <c r="M60">
-        <v>4778</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>1325</v>
       </c>
       <c r="M62">
-        <v>10856</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>1862</v>
       </c>
       <c r="M64">
-        <v>5913</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3289,7 +3289,7 @@
         <v>1710</v>
       </c>
       <c r="M66">
-        <v>5587</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>3596</v>
       </c>
       <c r="M68">
-        <v>14248</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3371,7 +3371,7 @@
         <v>1139</v>
       </c>
       <c r="M70">
-        <v>9614</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3412,7 +3412,7 @@
         <v>1720</v>
       </c>
       <c r="M72">
-        <v>9476</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3453,7 +3453,7 @@
         <v>1670</v>
       </c>
       <c r="M74">
-        <v>5551</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3494,7 +3494,7 @@
         <v>1662</v>
       </c>
       <c r="M76">
-        <v>10895</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>1151</v>
       </c>
       <c r="M78">
-        <v>13682</v>
+        <v>13968</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
         <v>1361</v>
       </c>
       <c r="M80">
-        <v>10787</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
         <v>3207</v>
       </c>
       <c r="M82">
-        <v>11113</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>891</v>
       </c>
       <c r="M84">
-        <v>6165</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3699,7 +3699,7 @@
         <v>928</v>
       </c>
       <c r="M86">
-        <v>4294</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>1775</v>
       </c>
       <c r="M88">
-        <v>4878</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -3781,7 +3781,7 @@
         <v>1563</v>
       </c>
       <c r="M90">
-        <v>4818</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3822,7 +3822,7 @@
         <v>853</v>
       </c>
       <c r="M92">
-        <v>11339</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>1270</v>
       </c>
       <c r="M94">
-        <v>4332</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
         <v>1682</v>
       </c>
       <c r="M96">
-        <v>9859</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -3945,7 +3945,7 @@
         <v>1980</v>
       </c>
       <c r="M98">
-        <v>9153</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -3960,6 +3960,18 @@
       </c>
       <c r="D99">
         <v>1472686833941</v>
+      </c>
+      <c r="K99">
+        <f>AVERAGE(K2:K98)</f>
+        <v>1023.7551020408164</v>
+      </c>
+      <c r="L99">
+        <f>AVERAGE(L2:L98)</f>
+        <v>1821.6938775510205</v>
+      </c>
+      <c r="M99">
+        <f>AVERAGE(M2:M98)</f>
+        <v>5679.9387755102043</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -3979,12 +3991,6 @@
         <f t="shared" si="1"/>
         <v>802</v>
       </c>
-      <c r="K100">
-        <v>802</v>
-      </c>
-      <c r="M100">
-        <v>10877</v>
-      </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -4017,12 +4023,6 @@
         <f t="shared" si="1"/>
         <v>1109</v>
       </c>
-      <c r="K102">
-        <v>1109</v>
-      </c>
-      <c r="M102">
-        <v>11042</v>
-      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -4055,12 +4055,6 @@
         <f t="shared" si="1"/>
         <v>1134</v>
       </c>
-      <c r="K104">
-        <v>1134</v>
-      </c>
-      <c r="M104">
-        <v>8119</v>
-      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -4093,12 +4087,6 @@
         <f t="shared" si="1"/>
         <v>769</v>
       </c>
-      <c r="K106">
-        <v>769</v>
-      </c>
-      <c r="M106">
-        <v>9311</v>
-      </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -4131,12 +4119,6 @@
         <f t="shared" si="1"/>
         <v>866</v>
       </c>
-      <c r="K108">
-        <v>866</v>
-      </c>
-      <c r="M108">
-        <v>12274</v>
-      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4169,9 +4151,6 @@
         <f t="shared" si="1"/>
         <v>1005</v>
       </c>
-      <c r="K110">
-        <v>1005</v>
-      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -4204,11 +4183,8 @@
         <f t="shared" si="1"/>
         <v>861</v>
       </c>
-      <c r="K112">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +4198,7 @@
         <v>1472686900334</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4237,9 +4213,6 @@
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>812</v>
-      </c>
-      <c r="K114">
         <v>812</v>
       </c>
     </row>
@@ -5842,7 +5815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K152"/>
     </sheetView>
   </sheetViews>

--- a/paper/sac2017/summary_connect.xlsx
+++ b/paper/sac2017/summary_connect.xlsx
@@ -15,10 +15,14 @@
     <sheet name="lgg4" sheetId="1" r:id="rId1"/>
     <sheet name="asus" sheetId="2" r:id="rId2"/>
     <sheet name="galaxy3" sheetId="3" r:id="rId3"/>
+    <sheet name="blu" sheetId="4" r:id="rId4"/>
+    <sheet name="motog4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="connect" localSheetId="1">asus!$A$1:$D$98</definedName>
+    <definedName name="connect" localSheetId="3">blu!$B$2:$G$87</definedName>
     <definedName name="connect" localSheetId="2">galaxy3!$A$1:$D$108</definedName>
+    <definedName name="connect" localSheetId="4">motog4!$B$2:$E$37</definedName>
     <definedName name="connect_lgg4" localSheetId="0">'lgg4'!$A$1:$D$114</definedName>
     <definedName name="connect091116" localSheetId="2">galaxy3!$G$1:$J$152</definedName>
   </definedNames>
@@ -73,11 +77,31 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="5" name="connect2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\android\PbSbMid\paper\sac2017\blu_disc_conn\connect.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="connect3" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="D:\android\PbSbMid\paper\sac2017\moto_g4_disc_conn\connect.txt" space="1" consecutive="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="11">
   <si>
     <t>connect</t>
   </si>
@@ -101,6 +125,15 @@
   </si>
   <si>
     <t>Galaxy S3</t>
+  </si>
+  <si>
+    <t>Android_c13c</t>
+  </si>
+  <si>
+    <t>BLU</t>
+  </si>
+  <si>
+    <t>Moto-G4</t>
   </si>
 </sst>
 </file>
@@ -1646,11 +1679,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect091116" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="connect" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1916,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1971,7 @@
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1952,8 +1993,14 @@
       <c r="M1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1979,8 +2026,14 @@
       <c r="M2">
         <v>4672</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>3047</v>
+      </c>
+      <c r="O2">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2047,7 @@
         <v>1472686303625</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2020,8 +2073,14 @@
       <c r="M4">
         <v>5287</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3062</v>
+      </c>
+      <c r="O4">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2094,7 @@
         <v>1472686315882</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2061,8 +2120,14 @@
       <c r="M6">
         <v>6352</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>2966</v>
+      </c>
+      <c r="O6">
+        <v>7443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2141,7 @@
         <v>1472686323797</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2102,8 +2167,14 @@
       <c r="M8">
         <v>5581</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>3012</v>
+      </c>
+      <c r="O8">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2188,7 @@
         <v>1472686332875</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2143,8 +2214,14 @@
       <c r="M10">
         <v>5254</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>2934</v>
+      </c>
+      <c r="O10">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2235,7 @@
         <v>1472686344008</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2184,8 +2261,14 @@
       <c r="M12">
         <v>5442</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>3047</v>
+      </c>
+      <c r="O12">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2282,7 @@
         <v>1472686356775</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2225,8 +2308,14 @@
       <c r="M14">
         <v>6161</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>2948</v>
+      </c>
+      <c r="O14">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2329,7 @@
         <v>1472686390614</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2266,8 +2355,14 @@
       <c r="M16">
         <v>6279</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>3796</v>
+      </c>
+      <c r="O16">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2376,7 @@
         <v>1472686401368</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2307,8 +2402,14 @@
       <c r="M18">
         <v>6548</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>2981</v>
+      </c>
+      <c r="O18">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2322,7 +2423,7 @@
         <v>1472686411772</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2348,8 +2449,14 @@
       <c r="M20">
         <v>5448</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>3025</v>
+      </c>
+      <c r="O20">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2470,7 @@
         <v>1472686421642</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2389,8 +2496,14 @@
       <c r="M22">
         <v>7528</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>3037</v>
+      </c>
+      <c r="O22">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2517,7 @@
         <v>1472686432250</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2430,8 +2543,14 @@
       <c r="M24">
         <v>5082</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>2981</v>
+      </c>
+      <c r="O24">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2564,7 @@
         <v>1472686442321</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2471,8 +2590,14 @@
       <c r="M26">
         <v>6200</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>3084</v>
+      </c>
+      <c r="O26">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2611,7 @@
         <v>1472686452081</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2512,8 +2637,14 @@
       <c r="M28">
         <v>5331</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>3062</v>
+      </c>
+      <c r="O28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2527,7 +2658,7 @@
         <v>1472686462825</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2553,8 +2684,14 @@
       <c r="M30">
         <v>5326</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>2954</v>
+      </c>
+      <c r="O30">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2705,7 @@
         <v>1472686470698</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2594,8 +2731,14 @@
       <c r="M32">
         <v>5287</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>3067</v>
+      </c>
+      <c r="O32">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2752,7 @@
         <v>1472686479314</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2635,8 +2778,14 @@
       <c r="M34">
         <v>5189</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>3050</v>
+      </c>
+      <c r="O34">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2799,7 @@
         <v>1472686486635</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2676,8 +2825,14 @@
       <c r="M36">
         <v>5084</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>1903</v>
+      </c>
+      <c r="O36">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2846,7 @@
         <v>1472686495325</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2717,8 +2872,11 @@
       <c r="M38">
         <v>6392</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2732,7 +2890,7 @@
         <v>1472686524761</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -2758,8 +2916,11 @@
       <c r="M40">
         <v>6115</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2934,7 @@
         <v>1472686534806</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2799,8 +2960,11 @@
       <c r="M42">
         <v>5083</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2978,7 @@
         <v>1472686546241</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -2840,8 +3004,11 @@
       <c r="M44">
         <v>5205</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2855,7 +3022,7 @@
         <v>1472686554964</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2881,8 +3048,11 @@
       <c r="M46">
         <v>5005</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +3066,7 @@
         <v>1472686566022</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2922,8 +3092,11 @@
       <c r="M48">
         <v>5178</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +3110,7 @@
         <v>1472686574446</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2963,8 +3136,11 @@
       <c r="M50">
         <v>5396</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2978,7 +3154,7 @@
         <v>1472686581783</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3004,8 +3180,11 @@
       <c r="M52">
         <v>6202</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3198,7 @@
         <v>1472686591075</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -3045,8 +3224,11 @@
       <c r="M54">
         <v>5270</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3242,7 @@
         <v>1472686598987</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -3086,8 +3268,11 @@
       <c r="M56">
         <v>6556</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3101,7 +3286,7 @@
         <v>1472686607457</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3127,8 +3312,11 @@
       <c r="M58">
         <v>5502</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -3142,7 +3330,7 @@
         <v>1472686614517</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -3168,8 +3356,11 @@
       <c r="M60">
         <v>5691</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3374,7 @@
         <v>1472686622069</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -3209,8 +3400,11 @@
       <c r="M62">
         <v>5180</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3418,7 @@
         <v>1472686629783</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3250,8 +3444,11 @@
       <c r="M64">
         <v>4866</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -3265,7 +3462,7 @@
         <v>1472686638069</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -3291,8 +3488,11 @@
       <c r="M66">
         <v>4907</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3506,7 @@
         <v>1472686648733</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -3332,8 +3532,11 @@
       <c r="M68">
         <v>5016</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +3550,7 @@
         <v>1472686658410</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -3373,8 +3576,11 @@
       <c r="M70">
         <v>6172</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3594,7 @@
         <v>1472686685027</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3414,8 +3620,11 @@
       <c r="M72">
         <v>6609</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +3638,7 @@
         <v>1472686693931</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3455,8 +3664,11 @@
       <c r="M74">
         <v>5113</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3682,7 @@
         <v>1472686702737</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3496,8 +3708,11 @@
       <c r="M76">
         <v>5023</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3511,7 +3726,7 @@
         <v>1472686712147</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3537,8 +3752,11 @@
       <c r="M78">
         <v>13968</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3552,7 +3770,7 @@
         <v>1472686721202</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -3578,8 +3796,11 @@
       <c r="M80">
         <v>5059</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3814,7 @@
         <v>1472686730633</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3619,8 +3840,11 @@
       <c r="M82">
         <v>5449</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3858,7 @@
         <v>1472686737995</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3885,7 @@
         <v>4872</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3675,7 +3899,7 @@
         <v>1472686755104</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3926,7 @@
         <v>5389</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3940,7 @@
         <v>1472686766943</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3743,7 +3967,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3757,7 +3981,7 @@
         <v>1472686775613</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3784,7 +4008,7 @@
         <v>5438</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3798,7 +4022,7 @@
         <v>1472686787135</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3825,7 +4049,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +4063,7 @@
         <v>1472686794974</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +4090,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3880,7 +4104,7 @@
         <v>1472686807771</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -7750,7 +7974,7 @@
         <v>1473637755443</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" ref="K64:K127" si="2">J64-J63</f>
+        <f t="shared" ref="K64:K72" si="2">J64-J63</f>
         <v>4866</v>
       </c>
     </row>
@@ -9782,4 +10006,1990 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F87"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F83" sqref="F3:F83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1474065495721</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1474065498768</v>
+      </c>
+      <c r="F3">
+        <f>E3-E2</f>
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1474065502172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1474065505234</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F4:F67" si="0">E5-E4</f>
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1474065508170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1474065511136</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1474065513698</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1474065516710</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1474065520545</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1474065523479</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1474065526105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1474065529152</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1474065531875</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1474065534823</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1474065538477</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1474065542273</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1474065545080</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1474065548061</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1474065550641</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1474065553666</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1474065556351</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1474065559388</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1474065562063</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1474065565044</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1474065567581</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1474065570665</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1474065573441</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1474065576503</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1474065579111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1474065582065</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1474065585078</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1474065588145</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1474065591548</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1474065594598</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1474065597185</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1474065599088</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1474065601704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1474065604719</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1474065607524</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1474065610516</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1474065613384</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>1474065616427</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>1474065619351</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>1474065622345</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1474065631827</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1474065634832</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1474065639220</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1474065642165</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1474065645389</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1474065648405</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1474065667474</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>1474065670441</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1474065675359</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>1474065678285</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1474065686221</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>1474065689335</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>1474065694421</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1474065697535</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1474065702538</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>1474065705922</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1474065709146</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1474065712242</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1474065716160</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>1474065719192</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1474065727238</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>1474065730303</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1474065734878</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>1474065737941</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F68:F87" si="1">E69-E68</f>
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1474065740571</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>1474065743624</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>1474065748192</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1474065751142</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>1474065776663</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>1474065779670</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1474065782545</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>1474065785504</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1474065791249</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>1474065794420</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>1474065797177</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>1474065799091</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1474065802047</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>1474065805096</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1474065812609</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1474065812609</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1474065813695</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1474065814471</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1474065863187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1474065867181</v>
+      </c>
+      <c r="F3">
+        <f>E3-E2</f>
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1474065949584</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1474065954739</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F4:F41" si="0">E5-E4</f>
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1474065960809</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1474065968252</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>7443</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1474065978425</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1474065983359</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1474065995585</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1474065997700</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1474066006397</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1474066011977</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1474066023408</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1474066027200</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1474066034004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>1474066036064</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1474066046322</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1474066048790</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1474066055670</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>1474066058083</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1474066064247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1474066067066</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1474066073601</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1474066077576</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1474066083162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1474066091689</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1474066119513</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1474066121536</v>
+      </c>
+      <c r="F29">
+        <f>E29-E28</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1474066173784</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1474066175746</v>
+      </c>
+      <c r="F31">
+        <f>E31-E30</f>
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1474066184961</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1474066189496</v>
+      </c>
+      <c r="F33">
+        <f>E33-E32</f>
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1474066213868</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1474066215840</v>
+      </c>
+      <c r="F35">
+        <f>E35-E34</f>
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1474066237669</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1474066243781</v>
+      </c>
+      <c r="F37">
+        <f>E37-E36</f>
+        <v>6112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>